--- a/verif_results/no_exact/datos_verificacion_relu.xlsx
+++ b/verif_results/no_exact/datos_verificacion_relu.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,6 +541,396 @@
         <v>0.72710904764518</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>50</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E5" t="n">
+        <v>29.81301355361938</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3698846449109251</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>50</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E6" t="n">
+        <v>29.67902708053589</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.3698846449109251</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.852222204208374</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9633821529229467</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.677959442138672</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9633821529229467</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>25</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.142954111099243</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.5850810723011208</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>25</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.597328662872314</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.5850810723011362</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>50</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E11" t="n">
+        <v>40.7149772644043</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0.2392417905826223</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>50</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E12" t="n">
+        <v>38.75923371315002</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0.2392417905826232</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.405767202377319</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1.721501876289255</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.30232048034668</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1.721501876289255</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>25</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>15.11482214927673</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>25</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6.595932722091675</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>50</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E17" t="n">
+        <v>72.51245141029358</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3.117587930255802</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/verif_results/no_exact/datos_verificacion_relu.xlsx
+++ b/verif_results/no_exact/datos_verificacion_relu.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -931,6 +931,306 @@
         <v>3.117587930255802</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.466317892074585</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>0.7349470145864312</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.491411924362183</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>0.7349470145864312</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="n">
+        <v>25</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E20" t="n">
+        <v>15.38983035087585</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>0.72710904764518</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>25</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E21" t="n">
+        <v>14.76368236541748</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>0.72710904764518</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="n">
+        <v>50</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E22" t="n">
+        <v>29.56476831436157</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>0.3698846449109251</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" t="n">
+        <v>50</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E23" t="n">
+        <v>29.2287609577179</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>0.3698846449109251</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.85975980758667</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9633821529229467</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.736970663070679</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9633821529229467</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.112404108047485</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>0.5850810723011208</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.568461894989014</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>0.5850810723011362</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/verif_results/no_exact/datos_verificacion_relu.xlsx
+++ b/verif_results/no_exact/datos_verificacion_relu.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,32 +434,28 @@
         </is>
       </c>
       <c r="D1" t="n">
-        <v>0.1</v>
+        <v>0.035</v>
       </c>
       <c r="E1" t="n">
-        <v>1.741703987121582</v>
+        <v>2.464065074920654</v>
       </c>
       <c r="F1" t="n">
-        <v>17.02298641204834</v>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>8.687345504760742</v>
+      </c>
+      <c r="G1" t="n">
+        <v>0</v>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I1" t="n">
+        <v>0.7349470145864312</v>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>optimal</t>
         </is>
       </c>
     </row>
@@ -476,32 +472,104 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>0.035</v>
       </c>
       <c r="E2" t="n">
-        <v>2.422487497329712</v>
+        <v>2.477789163589478</v>
       </c>
       <c r="F2" t="n">
-        <v>20.38812708854675</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>8.753873825073242</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7349470145864312</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>25</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15.45971083641052</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20.68851256370544</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.72710904764518</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>25</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14.72111821174622</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18.91266107559204</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.72710904764518</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>optimal</t>
         </is>
       </c>
     </row>

--- a/verif_results/no_exact/datos_verificacion_relu.xlsx
+++ b/verif_results/no_exact/datos_verificacion_relu.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,6 +573,538 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>50</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E5" t="n">
+        <v>29.31457877159119</v>
+      </c>
+      <c r="F5" t="n">
+        <v>37.01181507110596</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3698846449109251</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>50</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E6" t="n">
+        <v>29.03312563896179</v>
+      </c>
+      <c r="F6" t="n">
+        <v>36.16139030456543</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0.3698846449109251</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.843146562576294</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10.14037799835205</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9633821529229467</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.669596910476685</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.564904689788818</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9633821529229467</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>25</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.094198703765869</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14.51803636550903</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.5850810723011208</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>25</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.568229913711548</v>
+      </c>
+      <c r="F10" t="n">
+        <v>13.87453126907349</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0.5850810723011362</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>50</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E11" t="n">
+        <v>41.05162239074707</v>
+      </c>
+      <c r="F11" t="n">
+        <v>70.46177268028259</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.2392417905826223</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>50</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E12" t="n">
+        <v>38.64572334289551</v>
+      </c>
+      <c r="F12" t="n">
+        <v>80.62453961372375</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0.2392417905826232</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.541014671325684</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8.464696168899536</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1.721501876289255</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.704718828201294</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10.23844337463379</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1.721501876289255</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>25</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>14.91549873352051</v>
+      </c>
+      <c r="F15" t="n">
+        <v>63.12449407577515</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>25</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6.582506895065308</v>
+      </c>
+      <c r="F16" t="n">
+        <v>31.3308744430542</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>50</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E17" t="n">
+        <v>54.98216319084167</v>
+      </c>
+      <c r="F17" t="n">
+        <v>181.2774112224579</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>3.117587930255802</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>50</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E18" t="n">
+        <v>66.37825465202332</v>
+      </c>
+      <c r="F18" t="n">
+        <v>275.4875099658966</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>3.117587930255678</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
